--- a/data/trans_orig/IP1019-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1019-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36C31597-F70D-4DC5-B5A0-08627B5A7564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3A53908-18B4-488D-9559-2C5C4CA8AFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{75548672-EAB7-4269-9A87-7FCC3468B341}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{9EC63CE6-A7E8-4253-A738-B0BE8742FF9F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,36 +67,96 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>99,41%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>99,39%</t>
   </si>
   <si>
     <t>99,7%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
     <t>0,59%</t>
   </si>
   <si>
@@ -106,43 +166,25 @@
     <t>0,3%</t>
   </si>
   <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -166,48 +208,6 @@
     <t>0,33%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
     <t>99,91%</t>
   </si>
   <si>
@@ -241,28 +241,64 @@
     <t>Menores según si padecen falta de un miembro en 2012 (Tasa respuesta: 99,29%)</t>
   </si>
   <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
     <t>99,4%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
   </si>
   <si>
     <t>99,32%</t>
@@ -277,42 +313,6 @@
     <t>0,34%</t>
   </si>
   <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
     <t>99,82%</t>
   </si>
   <si>
@@ -328,64 +328,64 @@
     <t>Menores según si padecen falta de un miembro en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
     <t>99,42%</t>
   </si>
   <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
     <t>99,71%</t>
   </si>
   <si>
-    <t>0,58%</t>
-  </si>
-  <si>
     <t>0,29%</t>
   </si>
   <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
   </si>
   <si>
     <t>99,34%</t>
   </si>
   <si>
     <t>0,66%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
   </si>
 </sst>
 </file>
@@ -777,7 +777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF32B2A-6EC7-4B1E-80E8-F3EFC5614749}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{252840D2-EF53-4FC5-8847-DA41281AF401}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -895,10 +895,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7">
-        <v>212142</v>
+        <v>25444</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -910,10 +910,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7">
-        <v>195163</v>
+        <v>22724</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -925,10 +925,10 @@
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>634</v>
+        <v>62</v>
       </c>
       <c r="N4" s="7">
-        <v>407305</v>
+        <v>48168</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -997,10 +997,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>212142</v>
+        <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -1012,10 +1012,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="I6" s="7">
-        <v>195163</v>
+        <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -1027,10 +1027,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>634</v>
+        <v>62</v>
       </c>
       <c r="N6" s="7">
-        <v>407305</v>
+        <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -1205,10 +1205,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="D10" s="7">
-        <v>207824</v>
+        <v>212142</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
@@ -1220,10 +1220,10 @@
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="I10" s="7">
-        <v>209315</v>
+        <v>195163</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
@@ -1235,10 +1235,10 @@
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>580</v>
+        <v>634</v>
       </c>
       <c r="N10" s="7">
-        <v>417139</v>
+        <v>407305</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
@@ -1307,10 +1307,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="D12" s="7">
-        <v>207824</v>
+        <v>212142</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1322,10 +1322,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="I12" s="7">
-        <v>209315</v>
+        <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1337,10 +1337,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>580</v>
+        <v>634</v>
       </c>
       <c r="N12" s="7">
-        <v>417139</v>
+        <v>407305</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1360,10 +1360,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="D13" s="7">
-        <v>25444</v>
+        <v>149657</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
@@ -1375,10 +1375,10 @@
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I13" s="7">
-        <v>22724</v>
+        <v>137817</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
@@ -1390,10 +1390,10 @@
         <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>62</v>
+        <v>461</v>
       </c>
       <c r="N13" s="7">
-        <v>48168</v>
+        <v>287474</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
@@ -1462,10 +1462,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="D15" s="7">
-        <v>25444</v>
+        <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -1477,10 +1477,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I15" s="7">
-        <v>22724</v>
+        <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1492,10 +1492,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>62</v>
+        <v>461</v>
       </c>
       <c r="N15" s="7">
-        <v>48168</v>
+        <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -1515,10 +1515,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="D16" s="7">
-        <v>149657</v>
+        <v>207824</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
@@ -1530,10 +1530,10 @@
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="I16" s="7">
-        <v>137817</v>
+        <v>209315</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
@@ -1545,10 +1545,10 @@
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N16" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
@@ -1617,10 +1617,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="D18" s="7">
-        <v>149657</v>
+        <v>207824</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -1632,10 +1632,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="I18" s="7">
-        <v>137817</v>
+        <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -1647,10 +1647,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N18" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -1835,7 +1835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A09712-E7B1-41D2-9AD9-41F8BEB54116}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC38798A-59E0-4A38-A055-DA34B99DDE2A}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1953,10 +1953,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>321</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>221978</v>
+        <v>25455</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1968,31 +1968,31 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>317</v>
+        <v>26</v>
       </c>
       <c r="I4" s="7">
-        <v>205398</v>
+        <v>22373</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>638</v>
+        <v>54</v>
       </c>
       <c r="N4" s="7">
-        <v>427376</v>
+        <v>47828</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2016,7 +2016,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2031,7 +2031,7 @@
         <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2055,10 +2055,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>321</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7">
-        <v>221978</v>
+        <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -2070,10 +2070,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>317</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>205398</v>
+        <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -2085,10 +2085,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>638</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>427376</v>
+        <v>47828</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -2117,7 +2117,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2132,7 +2132,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2147,7 +2147,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2171,7 +2171,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2186,7 +2186,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2201,7 +2201,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2263,46 +2263,46 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="D10" s="7">
-        <v>207082</v>
+        <v>221978</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="I10" s="7">
-        <v>210300</v>
+        <v>205398</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>556</v>
+        <v>638</v>
       </c>
       <c r="N10" s="7">
-        <v>417382</v>
+        <v>427376</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2326,7 +2326,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2356,7 +2356,7 @@
         <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2365,10 +2365,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>207082</v>
+        <v>221978</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2380,10 +2380,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="I12" s="7">
-        <v>210300</v>
+        <v>205398</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2395,10 +2395,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>556</v>
+        <v>638</v>
       </c>
       <c r="N12" s="7">
-        <v>417382</v>
+        <v>427376</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -2418,46 +2418,46 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="D13" s="7">
-        <v>25455</v>
+        <v>165985</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="I13" s="7">
-        <v>22373</v>
+        <v>154839</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>54</v>
+        <v>496</v>
       </c>
       <c r="N13" s="7">
-        <v>47828</v>
+        <v>320824</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -2481,7 +2481,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2511,7 +2511,7 @@
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2520,10 +2520,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="D15" s="7">
-        <v>25455</v>
+        <v>165985</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -2535,10 +2535,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="I15" s="7">
-        <v>22373</v>
+        <v>154839</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -2550,10 +2550,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>496</v>
       </c>
       <c r="N15" s="7">
-        <v>47828</v>
+        <v>320824</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -2573,46 +2573,46 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="D16" s="7">
-        <v>165985</v>
+        <v>207082</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="I16" s="7">
-        <v>154839</v>
+        <v>210300</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N16" s="7">
-        <v>320824</v>
+        <v>417382</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -2636,7 +2636,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -2675,10 +2675,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="D18" s="7">
-        <v>165985</v>
+        <v>207082</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -2690,10 +2690,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="I18" s="7">
-        <v>154839</v>
+        <v>210300</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -2705,10 +2705,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N18" s="7">
-        <v>320824</v>
+        <v>417382</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -2893,7 +2893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE29B79B-42EB-4C92-A8A2-C4FAF832B18F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA2DFD3-2865-4494-9406-515B67FCE753}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3011,10 +3011,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>224359</v>
+        <v>25574</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -3026,31 +3026,31 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>334</v>
+        <v>24</v>
       </c>
       <c r="I4" s="7">
-        <v>207247</v>
+        <v>22527</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>666</v>
+        <v>54</v>
       </c>
       <c r="N4" s="7">
-        <v>431606</v>
+        <v>48101</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -3089,7 +3089,7 @@
         <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3104,7 +3104,7 @@
         <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,10 +3113,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7">
-        <v>224359</v>
+        <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -3128,10 +3128,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>334</v>
+        <v>24</v>
       </c>
       <c r="I6" s="7">
-        <v>207247</v>
+        <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -3143,10 +3143,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>666</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>431606</v>
+        <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -3205,7 +3205,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -3229,7 +3229,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3259,7 +3259,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3321,46 +3321,46 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="D10" s="7">
-        <v>205736</v>
+        <v>224359</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="I10" s="7">
-        <v>207420</v>
+        <v>207247</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>571</v>
+        <v>666</v>
       </c>
       <c r="N10" s="7">
-        <v>413156</v>
+        <v>431606</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3399,7 +3399,7 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3414,7 +3414,7 @@
         <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3423,10 +3423,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="D12" s="7">
-        <v>205736</v>
+        <v>224359</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -3438,10 +3438,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="I12" s="7">
-        <v>207420</v>
+        <v>207247</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -3453,10 +3453,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>571</v>
+        <v>666</v>
       </c>
       <c r="N12" s="7">
-        <v>413156</v>
+        <v>431606</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -3476,46 +3476,46 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="D13" s="7">
-        <v>25574</v>
+        <v>166673</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="I13" s="7">
-        <v>22527</v>
+        <v>155997</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>54</v>
+        <v>507</v>
       </c>
       <c r="N13" s="7">
-        <v>48101</v>
+        <v>322670</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -3539,7 +3539,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3578,10 +3578,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="D15" s="7">
-        <v>25574</v>
+        <v>166673</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -3593,10 +3593,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="I15" s="7">
-        <v>22527</v>
+        <v>155997</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -3608,10 +3608,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>507</v>
       </c>
       <c r="N15" s="7">
-        <v>48101</v>
+        <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -3631,46 +3631,46 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="D16" s="7">
-        <v>166673</v>
+        <v>205736</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="I16" s="7">
-        <v>155997</v>
+        <v>207420</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N16" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3694,7 +3694,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,10 +3733,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="D18" s="7">
-        <v>166673</v>
+        <v>205736</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -3748,10 +3748,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="I18" s="7">
-        <v>155997</v>
+        <v>207420</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -3763,10 +3763,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N18" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>

--- a/data/trans_orig/IP1019-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1019-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3A53908-18B4-488D-9559-2C5C4CA8AFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{111847EA-EB3C-4179-8ABF-D209576FCE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{9EC63CE6-A7E8-4253-A738-B0BE8742FF9F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{33E586C4-D337-4664-920E-83F2EB8AE8D5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="115">
   <si>
     <t>Menores según si padecen falta de un miembro en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -70,6 +70,24 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -88,66 +106,57 @@
     <t>96,96%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
     <t>99,47%</t>
   </si>
   <si>
-    <t>96,66%</t>
+    <t>97,1%</t>
   </si>
   <si>
     <t>99,38%</t>
   </si>
   <si>
-    <t>96,88%</t>
+    <t>96,73%</t>
   </si>
   <si>
     <t>99,43%</t>
   </si>
   <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
+    <t>97,73%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
     <t>99,41%</t>
   </si>
   <si>
@@ -157,18 +166,18 @@
     <t>99,7%</t>
   </si>
   <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
     <t>99,18%</t>
   </si>
   <si>
@@ -178,18 +187,18 @@
     <t>99,58%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
     <t>99,37%</t>
   </si>
   <si>
@@ -199,13 +208,16 @@
     <t>99,67%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
   </si>
   <si>
     <t>99,91%</t>
@@ -220,27 +232,21 @@
     <t>99,9%</t>
   </si>
   <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
     <t>Menores según si padecen falta de un miembro en 2012 (Tasa respuesta: 99,29%)</t>
   </si>
   <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
     <t>93,43%</t>
   </si>
   <si>
@@ -250,13 +256,13 @@
     <t>96,52%</t>
   </si>
   <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
   </si>
   <si>
     <t>98,95%</t>
@@ -268,19 +274,19 @@
     <t>99,44%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
+    <t>0,6%</t>
   </si>
   <si>
     <t>99,4%</t>
   </si>
   <si>
-    <t>0,6%</t>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
   </si>
   <si>
     <t>99,25%</t>
@@ -292,13 +298,10 @@
     <t>99,61%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
   </si>
   <si>
     <t>99,32%</t>
@@ -307,10 +310,10 @@
     <t>99,66%</t>
   </si>
   <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
   </si>
   <si>
     <t>99,82%</t>
@@ -319,25 +322,28 @@
     <t>99,81%</t>
   </si>
   <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
     <t>Menores según si padecen falta de un miembro en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
     <t>93,85%</t>
   </si>
   <si>
     <t>92,39%</t>
   </si>
   <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
   </si>
   <si>
     <t>98,84%</t>
@@ -349,19 +355,19 @@
     <t>99,42%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
+    <t>0,29%</t>
   </si>
   <si>
     <t>99,71%</t>
   </si>
   <si>
-    <t>0,29%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
   </si>
   <si>
     <t>99,23%</t>
@@ -373,19 +379,10 @@
     <t>99,62%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
+    <t>0,66%</t>
   </si>
   <si>
     <t>99,34%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
   </si>
 </sst>
 </file>
@@ -396,7 +393,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -492,39 +489,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -576,7 +573,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -687,13 +684,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -702,6 +692,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -766,19 +763,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{252840D2-EF53-4FC5-8847-DA41281AF401}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A3EED8-04F5-40BF-A9F7-120753BC734B}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -895,10 +912,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25444</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -910,34 +927,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22724</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>48168</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -946,10 +963,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25444</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -961,34 +978,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>22724</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>48168</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1003,13 +1020,13 @@
         <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>29</v>
@@ -1018,13 +1035,13 @@
         <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>62</v>
@@ -1033,13 +1050,13 @@
         <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1050,49 +1067,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>126960</v>
+        <v>673</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H7" s="7">
-        <v>173</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>115282</v>
+        <v>720</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M7" s="7">
-        <v>365</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>242242</v>
+        <v>1393</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1101,49 +1118,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D8" s="7">
-        <v>673</v>
+        <v>126960</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>173</v>
       </c>
       <c r="I8" s="7">
-        <v>720</v>
+        <v>115282</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>365</v>
       </c>
       <c r="N8" s="7">
-        <v>1393</v>
+        <v>242242</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>33</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1158,13 +1175,13 @@
         <v>127633</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>174</v>
@@ -1173,13 +1190,13 @@
         <v>116002</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>367</v>
@@ -1188,13 +1205,13 @@
         <v>243635</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1205,49 +1222,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>322</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>212142</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H10" s="7">
-        <v>312</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>195163</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M10" s="7">
-        <v>634</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>407305</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1256,49 +1273,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>212142</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>195163</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>634</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>407305</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1313,13 +1330,13 @@
         <v>212142</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>312</v>
@@ -1328,13 +1345,13 @@
         <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>634</v>
@@ -1343,13 +1360,13 @@
         <v>407305</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1360,49 +1377,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>149657</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" s="7">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>137817</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M13" s="7">
-        <v>461</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>287474</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1411,49 +1428,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>149657</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>137817</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>461</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>287474</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1468,13 +1485,13 @@
         <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>229</v>
@@ -1483,13 +1500,13 @@
         <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>461</v>
@@ -1498,13 +1515,13 @@
         <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1515,49 +1532,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>207824</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H16" s="7">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>209315</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M16" s="7">
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>417139</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1566,49 +1583,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>207824</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>209315</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>417139</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1623,13 +1640,13 @@
         <v>207824</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>274</v>
@@ -1638,13 +1655,13 @@
         <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>580</v>
@@ -1653,13 +1670,13 @@
         <v>417139</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1670,49 +1687,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1085</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>722027</v>
+        <v>673</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>56</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H19" s="7">
-        <v>1017</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>680301</v>
+        <v>720</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>58</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M19" s="7">
-        <v>2102</v>
+        <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>1402328</v>
+        <v>1393</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>59</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1721,49 +1738,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>1085</v>
       </c>
       <c r="D20" s="7">
-        <v>673</v>
+        <v>722027</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="G20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1017</v>
+      </c>
+      <c r="I20" s="7">
+        <v>680301</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>720</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" s="7">
+        <v>2102</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1402328</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1393</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="P20" s="7" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1778,13 +1795,13 @@
         <v>722700</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -1793,13 +1810,13 @@
         <v>681021</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>2104</v>
@@ -1808,13 +1825,18 @@
         <v>1403721</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1835,8 +1857,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC38798A-59E0-4A38-A055-DA34B99DDE2A}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76B57F8-73AE-4B61-BB3B-C75C13136D7A}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1852,7 +1874,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1953,49 +1975,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25455</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>26</v>
-      </c>
-      <c r="I4" s="7">
-        <v>22373</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="7">
-        <v>54</v>
-      </c>
-      <c r="N4" s="7">
-        <v>47828</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2004,49 +2026,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25455</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>26</v>
+      </c>
+      <c r="I5" s="7">
+        <v>22373</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
+        <v>54</v>
+      </c>
+      <c r="N5" s="7">
+        <v>47828</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2061,13 +2083,13 @@
         <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>26</v>
@@ -2076,13 +2098,13 @@
         <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -2091,13 +2113,13 @@
         <v>47828</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2108,49 +2130,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>127643</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7">
-        <v>159</v>
-      </c>
-      <c r="I7" s="7">
-        <v>114018</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="7">
-        <v>340</v>
-      </c>
-      <c r="N7" s="7">
-        <v>241661</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2159,49 +2181,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>127643</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7">
+        <v>159</v>
+      </c>
+      <c r="I8" s="7">
+        <v>114018</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="L8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="7">
+        <v>340</v>
+      </c>
+      <c r="N8" s="7">
+        <v>241661</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2216,13 +2238,13 @@
         <v>127643</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>159</v>
@@ -2231,13 +2253,13 @@
         <v>114018</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>340</v>
@@ -2246,13 +2268,13 @@
         <v>241661</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2263,49 +2285,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>221978</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H10" s="7">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>205398</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M10" s="7">
-        <v>638</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>427376</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2314,49 +2336,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>221977</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>205398</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>638</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>427376</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2368,16 +2390,16 @@
         <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>221978</v>
+        <v>221977</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>317</v>
@@ -2386,13 +2408,13 @@
         <v>205398</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>638</v>
@@ -2401,13 +2423,13 @@
         <v>427376</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2418,49 +2440,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>165985</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>241</v>
-      </c>
-      <c r="I13" s="7">
-        <v>154839</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13" s="7">
-        <v>496</v>
-      </c>
-      <c r="N13" s="7">
-        <v>320824</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2469,49 +2491,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>165985</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="7">
+        <v>241</v>
+      </c>
+      <c r="I14" s="7">
+        <v>154839</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="L14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="7">
+        <v>496</v>
+      </c>
+      <c r="N14" s="7">
+        <v>320824</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2526,13 +2548,13 @@
         <v>165985</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>241</v>
@@ -2541,13 +2563,13 @@
         <v>154839</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>496</v>
@@ -2556,13 +2578,13 @@
         <v>320824</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2573,49 +2595,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>207082</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="7">
-        <v>275</v>
-      </c>
-      <c r="I16" s="7">
-        <v>210300</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16" s="7">
-        <v>556</v>
-      </c>
-      <c r="N16" s="7">
-        <v>417382</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2624,49 +2646,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>207082</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="7">
+        <v>275</v>
+      </c>
+      <c r="I17" s="7">
+        <v>210300</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="7">
+        <v>556</v>
+      </c>
+      <c r="N17" s="7">
+        <v>417382</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,13 +2703,13 @@
         <v>207082</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>275</v>
@@ -2696,13 +2718,13 @@
         <v>210300</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>556</v>
@@ -2711,13 +2733,13 @@
         <v>417382</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,49 +2750,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1066</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>748142</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I19" s="7">
-        <v>706928</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M19" s="7">
-        <v>2084</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>1455070</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2779,49 +2801,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>1066</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>748142</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1018</v>
+      </c>
+      <c r="I20" s="7">
+        <v>706928</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>2084</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>1455070</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2836,13 +2858,13 @@
         <v>748142</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -2851,13 +2873,13 @@
         <v>706928</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>2084</v>
@@ -2866,13 +2888,18 @@
         <v>1455070</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2893,8 +2920,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA2DFD3-2865-4494-9406-515B67FCE753}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D9272F-CCC7-4EA3-887C-1E59E033FF33}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2910,7 +2937,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3011,49 +3038,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25574</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>24</v>
-      </c>
-      <c r="I4" s="7">
-        <v>22527</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>48101</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,49 +3089,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25574</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>24</v>
+      </c>
+      <c r="I5" s="7">
+        <v>22527</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>48101</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3119,13 +3146,13 @@
         <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>24</v>
@@ -3134,13 +3161,13 @@
         <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -3149,13 +3176,13 @@
         <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,49 +3193,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>122502</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7">
-        <v>163</v>
-      </c>
-      <c r="I7" s="7">
-        <v>111180</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="7">
-        <v>328</v>
-      </c>
-      <c r="N7" s="7">
-        <v>233682</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,49 +3244,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>122502</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7">
+        <v>163</v>
+      </c>
+      <c r="I8" s="7">
+        <v>111180</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="L8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="7">
+        <v>328</v>
+      </c>
+      <c r="N8" s="7">
+        <v>233682</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,13 +3301,13 @@
         <v>122502</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>163</v>
@@ -3289,13 +3316,13 @@
         <v>111180</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>328</v>
@@ -3304,13 +3331,13 @@
         <v>233682</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3321,49 +3348,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>224359</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="H10" s="7">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>207247</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M10" s="7">
-        <v>666</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>431606</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,49 +3399,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>224359</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>334</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>207247</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>666</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>431606</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,13 +3456,13 @@
         <v>224359</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>334</v>
@@ -3444,13 +3471,13 @@
         <v>207247</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>666</v>
@@ -3459,13 +3486,13 @@
         <v>431606</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,49 +3503,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>166673</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>259</v>
-      </c>
-      <c r="I13" s="7">
-        <v>155997</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13" s="7">
-        <v>507</v>
-      </c>
-      <c r="N13" s="7">
-        <v>322670</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,49 +3554,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>166673</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="7">
+        <v>259</v>
+      </c>
+      <c r="I14" s="7">
+        <v>155997</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="L14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="7">
+        <v>507</v>
+      </c>
+      <c r="N14" s="7">
+        <v>322670</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3584,13 +3611,13 @@
         <v>166673</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>259</v>
@@ -3599,13 +3626,13 @@
         <v>155997</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>507</v>
@@ -3614,13 +3641,13 @@
         <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,49 +3658,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>205736</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="H16" s="7">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>207420</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16" s="7">
-        <v>571</v>
-      </c>
-      <c r="N16" s="7">
-        <v>413156</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,49 +3709,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>205736</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>207420</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="L17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="7">
+        <v>571</v>
+      </c>
+      <c r="N17" s="7">
+        <v>413156</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,13 +3766,13 @@
         <v>205736</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>281</v>
@@ -3754,13 +3781,13 @@
         <v>207420</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>571</v>
@@ -3769,13 +3796,13 @@
         <v>413156</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,49 +3813,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1065</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>744844</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="H19" s="7">
-        <v>1061</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>704371</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M19" s="7">
-        <v>2126</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>1449215</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,49 +3864,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>1065</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>744844</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>1061</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>704371</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>2126</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>1449215</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3894,13 +3921,13 @@
         <v>744844</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>1061</v>
@@ -3909,13 +3936,13 @@
         <v>704371</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>2126</v>
@@ -3924,13 +3951,18 @@
         <v>1449215</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1019-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1019-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{111847EA-EB3C-4179-8ABF-D209576FCE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF8A69C4-CCF5-44BB-B1AE-C66D1C1629D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{33E586C4-D337-4664-920E-83F2EB8AE8D5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CBAFAAAE-D9A1-489E-8F48-7213DB416783}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="117">
   <si>
     <t>Menores según si padecen falta de un miembro en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -106,46 +106,46 @@
     <t>96,96%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>2,9%</t>
+    <t>2,46%</t>
   </si>
   <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>3,27%</t>
+    <t>3,12%</t>
   </si>
   <si>
     <t>0,57%</t>
   </si>
   <si>
-    <t>2,27%</t>
+    <t>1,73%</t>
   </si>
   <si>
     <t>99,47%</t>
   </si>
   <si>
-    <t>97,1%</t>
+    <t>97,54%</t>
   </si>
   <si>
     <t>99,38%</t>
   </si>
   <si>
-    <t>96,73%</t>
+    <t>96,88%</t>
   </si>
   <si>
     <t>99,43%</t>
   </si>
   <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,59%</t>
@@ -166,7 +166,7 @@
     <t>99,7%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,82%</t>
@@ -211,27 +211,39 @@
     <t>0,09%</t>
   </si>
   <si>
-    <t>0,47%</t>
+    <t>0,54%</t>
   </si>
   <si>
     <t>0,11%</t>
   </si>
   <si>
+    <t>0,6%</t>
+  </si>
+  <si>
     <t>0,1%</t>
   </si>
   <si>
+    <t>0,36%</t>
+  </si>
+  <si>
     <t>99,91%</t>
   </si>
   <si>
-    <t>99,53%</t>
+    <t>99,46%</t>
   </si>
   <si>
     <t>99,89%</t>
   </si>
   <si>
+    <t>99,4%</t>
+  </si>
+  <si>
     <t>99,9%</t>
   </si>
   <si>
+    <t>99,64%</t>
+  </si>
+  <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
@@ -274,12 +286,6 @@
     <t>99,44%</t>
   </si>
   <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
     <t>0,75%</t>
   </si>
   <si>
@@ -322,7 +328,7 @@
     <t>99,81%</t>
   </si>
   <si>
-    <t>Menores según si padecen falta de un miembro en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Menores según si padecen falta de un miembro en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>6,15%</t>
@@ -794,7 +800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A3EED8-04F5-40BF-A9F7-120753BC734B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{722C5EBB-ABD9-44FF-8F1A-CB7A51461EE9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1714,7 +1720,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -1723,13 +1729,13 @@
         <v>1393</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1744,10 +1750,10 @@
         <v>722027</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>17</v>
@@ -1759,10 +1765,10 @@
         <v>680301</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>17</v>
@@ -1774,10 +1780,10 @@
         <v>1402328</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>17</v>
@@ -1836,7 +1842,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1857,7 +1863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76B57F8-73AE-4B61-BB3B-C75C13136D7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE60A6A9-34D4-4DE3-8036-B617889BA251}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1874,7 +1880,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1987,7 +1993,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2002,7 +2008,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2017,7 +2023,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2035,7 +2041,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2050,7 +2056,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2065,7 +2071,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2142,7 +2148,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2157,7 +2163,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2172,7 +2178,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2190,7 +2196,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -2205,7 +2211,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -2220,7 +2226,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -2297,7 +2303,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2312,7 +2318,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2339,13 +2345,13 @@
         <v>321</v>
       </c>
       <c r="D11" s="7">
-        <v>221977</v>
+        <v>221978</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -2360,7 +2366,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -2390,7 +2396,7 @@
         <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>221977</v>
+        <v>221978</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -2452,7 +2458,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2467,7 +2473,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2482,7 +2488,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2500,7 +2506,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -2515,7 +2521,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -2530,7 +2536,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -2607,7 +2613,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2637,7 +2643,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,7 +2661,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -2685,7 +2691,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -2762,7 +2768,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2777,7 +2783,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -2810,7 +2816,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -2825,7 +2831,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -2840,7 +2846,7 @@
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -2899,7 +2905,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2920,7 +2926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D9272F-CCC7-4EA3-887C-1E59E033FF33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF74407-B5D4-439D-B5D2-16E0A52A9352}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2937,7 +2943,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3050,7 +3056,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3065,7 +3071,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3080,7 +3086,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,7 +3104,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3113,7 +3119,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3128,7 +3134,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3205,7 +3211,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3220,7 +3226,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3235,7 +3241,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,7 +3259,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3268,7 +3274,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3283,7 +3289,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -3360,7 +3366,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3390,7 +3396,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3408,7 +3414,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -3438,7 +3444,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -3515,7 +3521,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3530,7 +3536,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3545,7 +3551,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3563,7 +3569,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -3578,7 +3584,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -3593,7 +3599,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -3670,7 +3676,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3685,7 +3691,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3700,7 +3706,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3718,7 +3724,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -3733,7 +3739,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -3748,7 +3754,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -3825,7 +3831,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3840,7 +3846,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -3873,7 +3879,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -3888,7 +3894,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -3903,7 +3909,7 @@
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -3962,7 +3968,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1019-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1019-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF8A69C4-CCF5-44BB-B1AE-C66D1C1629D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EC92A2A-F3E4-4A83-9D2F-C0FCA8F3650E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CBAFAAAE-D9A1-489E-8F48-7213DB416783}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{08799029-496A-47B4-976A-C974AE7FC780}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="106">
   <si>
     <t>Menores según si padecen falta de un miembro en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,319 +67,286 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>0,52%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen falta de un miembro en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen falta de un miembro en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
   </si>
   <si>
     <t>0,57%</t>
   </si>
   <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
   </si>
   <si>
     <t>99,43%</t>
   </si>
   <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen falta de un miembro en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen falta de un miembro en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
     <t>99,42%</t>
   </si>
   <si>
-    <t>0,29%</t>
-  </si>
-  <si>
     <t>99,71%</t>
   </si>
   <si>
+    <t>0,74%</t>
+  </si>
+  <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
     <t>0,38%</t>
   </si>
   <si>
+    <t>99,26%</t>
+  </si>
+  <si>
     <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
   </si>
   <si>
     <t>99,62%</t>
@@ -800,8 +767,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{722C5EBB-ABD9-44FF-8F1A-CB7A51461EE9}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF49DE2B-AB46-4352-8012-481FF00A9A69}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -918,10 +885,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -933,85 +900,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>673</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1393</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>33</v>
+        <v>202</v>
       </c>
       <c r="D5" s="7">
-        <v>25444</v>
+        <v>138006</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>29</v>
+        <v>225</v>
       </c>
       <c r="I5" s="7">
-        <v>22724</v>
+        <v>152404</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>62</v>
+        <v>427</v>
       </c>
       <c r="N5" s="7">
-        <v>48168</v>
+        <v>290410</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1020,153 +987,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="D6" s="7">
-        <v>25444</v>
+        <v>138726</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="I6" s="7">
-        <v>22724</v>
+        <v>153077</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>62</v>
+        <v>429</v>
       </c>
       <c r="N6" s="7">
-        <v>48168</v>
+        <v>291803</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>673</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>1393</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>192</v>
+        <v>312</v>
       </c>
       <c r="D8" s="7">
-        <v>126960</v>
+        <v>195163</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
-        <v>173</v>
+        <v>322</v>
       </c>
       <c r="I8" s="7">
-        <v>115282</v>
+        <v>212142</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M8" s="7">
-        <v>365</v>
+        <v>634</v>
       </c>
       <c r="N8" s="7">
-        <v>242242</v>
+        <v>407305</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1175,49 +1142,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="D9" s="7">
-        <v>127633</v>
+        <v>195163</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>174</v>
+        <v>322</v>
       </c>
       <c r="I9" s="7">
-        <v>116002</v>
+        <v>212142</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>367</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>243635</v>
+        <v>407305</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1234,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>36</v>
@@ -1249,10 +1216,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>37</v>
@@ -1264,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>38</v>
@@ -1276,52 +1243,52 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>322</v>
+        <v>229</v>
       </c>
       <c r="D11" s="7">
-        <v>212142</v>
+        <v>137817</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="I11" s="7">
-        <v>195163</v>
+        <v>149657</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
-        <v>634</v>
+        <v>461</v>
       </c>
       <c r="N11" s="7">
-        <v>407305</v>
+        <v>287474</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1330,49 +1297,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>322</v>
+        <v>229</v>
       </c>
       <c r="D12" s="7">
-        <v>212142</v>
+        <v>137817</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="I12" s="7">
-        <v>195163</v>
+        <v>149657</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>461</v>
       </c>
       <c r="N12" s="7">
-        <v>407305</v>
+        <v>287474</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1389,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>43</v>
@@ -1404,10 +1371,10 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>44</v>
@@ -1419,10 +1386,10 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>45</v>
@@ -1431,52 +1398,52 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="D14" s="7">
-        <v>149657</v>
+        <v>209315</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H14" s="7">
-        <v>229</v>
+        <v>306</v>
       </c>
       <c r="I14" s="7">
-        <v>137817</v>
+        <v>207824</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>47</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M14" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N14" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>48</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1485,66 +1452,66 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="D15" s="7">
-        <v>149657</v>
+        <v>209315</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>229</v>
+        <v>306</v>
       </c>
       <c r="I15" s="7">
-        <v>137817</v>
+        <v>207824</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N15" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
@@ -1553,85 +1520,85 @@
         <v>50</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>673</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>1393</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>306</v>
+        <v>1017</v>
       </c>
       <c r="D17" s="7">
-        <v>207824</v>
+        <v>680301</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H17" s="7">
-        <v>274</v>
+        <v>1085</v>
       </c>
       <c r="I17" s="7">
-        <v>209315</v>
+        <v>722027</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M17" s="7">
-        <v>580</v>
+        <v>2102</v>
       </c>
       <c r="N17" s="7">
-        <v>417139</v>
+        <v>1402328</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1640,217 +1607,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>306</v>
+        <v>1018</v>
       </c>
       <c r="D18" s="7">
-        <v>207824</v>
+        <v>681021</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>274</v>
+        <v>1086</v>
       </c>
       <c r="I18" s="7">
-        <v>209315</v>
+        <v>722700</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>580</v>
+        <v>2104</v>
       </c>
       <c r="N18" s="7">
-        <v>417139</v>
+        <v>1403721</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7">
-        <v>673</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>720</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1393</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q19" s="7" t="s">
+      <c r="A19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1085</v>
-      </c>
-      <c r="D20" s="7">
-        <v>722027</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1017</v>
-      </c>
-      <c r="I20" s="7">
-        <v>680301</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2102</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1402328</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D21" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I21" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>68</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1863,8 +1674,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE60A6A9-34D4-4DE3-8036-B617889BA251}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677E46CD-E0C7-4565-A7D8-152DE90F3297}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1880,7 +1691,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1987,13 +1798,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2002,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2017,64 +1828,64 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c r="D5" s="7">
-        <v>25455</v>
+        <v>136391</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H5" s="7">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="I5" s="7">
-        <v>22373</v>
+        <v>153098</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>54</v>
+        <v>394</v>
       </c>
       <c r="N5" s="7">
-        <v>47828</v>
+        <v>289489</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2083,54 +1894,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c r="D6" s="7">
-        <v>25455</v>
+        <v>136391</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="I6" s="7">
-        <v>22373</v>
+        <v>153098</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>394</v>
       </c>
       <c r="N6" s="7">
-        <v>47828</v>
+        <v>289489</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2142,13 +1953,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2157,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2172,64 +1983,64 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>181</v>
+        <v>317</v>
       </c>
       <c r="D8" s="7">
-        <v>127643</v>
+        <v>205398</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
-        <v>159</v>
+        <v>321</v>
       </c>
       <c r="I8" s="7">
-        <v>114018</v>
+        <v>221977</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M8" s="7">
-        <v>340</v>
+        <v>638</v>
       </c>
       <c r="N8" s="7">
-        <v>241661</v>
+        <v>427376</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2238,49 +2049,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>181</v>
+        <v>317</v>
       </c>
       <c r="D9" s="7">
-        <v>127643</v>
+        <v>205398</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>159</v>
+        <v>321</v>
       </c>
       <c r="I9" s="7">
-        <v>114018</v>
+        <v>221977</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>340</v>
+        <v>638</v>
       </c>
       <c r="N9" s="7">
-        <v>241661</v>
+        <v>427376</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2297,13 +2108,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2312,13 +2123,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2327,64 +2138,64 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>321</v>
+        <v>241</v>
       </c>
       <c r="D11" s="7">
-        <v>221978</v>
+        <v>154839</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
-        <v>317</v>
+        <v>255</v>
       </c>
       <c r="I11" s="7">
-        <v>205398</v>
+        <v>165985</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
-        <v>638</v>
+        <v>496</v>
       </c>
       <c r="N11" s="7">
-        <v>427376</v>
+        <v>320824</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2393,49 +2204,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>321</v>
+        <v>241</v>
       </c>
       <c r="D12" s="7">
-        <v>221978</v>
+        <v>154839</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>317</v>
+        <v>255</v>
       </c>
       <c r="I12" s="7">
-        <v>205398</v>
+        <v>165985</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>638</v>
+        <v>496</v>
       </c>
       <c r="N12" s="7">
-        <v>427376</v>
+        <v>320824</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2452,13 +2263,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2467,13 +2278,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2482,64 +2293,64 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D14" s="7">
-        <v>165985</v>
+        <v>210300</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H14" s="7">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="I14" s="7">
-        <v>154839</v>
+        <v>207082</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M14" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N14" s="7">
-        <v>320824</v>
+        <v>417382</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,54 +2359,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D15" s="7">
-        <v>165985</v>
+        <v>210300</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="I15" s="7">
-        <v>154839</v>
+        <v>207082</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N15" s="7">
-        <v>320824</v>
+        <v>417382</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2607,13 +2418,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2622,79 +2433,79 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>281</v>
+        <v>1018</v>
       </c>
       <c r="D17" s="7">
-        <v>207082</v>
+        <v>706928</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H17" s="7">
-        <v>275</v>
+        <v>1066</v>
       </c>
       <c r="I17" s="7">
-        <v>210300</v>
+        <v>748142</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M17" s="7">
-        <v>556</v>
+        <v>2084</v>
       </c>
       <c r="N17" s="7">
-        <v>417382</v>
+        <v>1455070</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2703,217 +2514,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>281</v>
+        <v>1018</v>
       </c>
       <c r="D18" s="7">
-        <v>207082</v>
+        <v>706928</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>275</v>
+        <v>1066</v>
       </c>
       <c r="I18" s="7">
-        <v>210300</v>
+        <v>748142</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>556</v>
+        <v>2084</v>
       </c>
       <c r="N18" s="7">
-        <v>417382</v>
+        <v>1455070</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1066</v>
-      </c>
-      <c r="D20" s="7">
-        <v>748142</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I20" s="7">
-        <v>706928</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2084</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1455070</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1066</v>
-      </c>
-      <c r="D21" s="7">
-        <v>748142</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I21" s="7">
-        <v>706928</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2084</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1455070</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>68</v>
+      <c r="A19" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2926,8 +2581,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF74407-B5D4-439D-B5D2-16E0A52A9352}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB15619B-9EBA-4F77-8B86-D6C9FCC388D0}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2943,7 +2598,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3050,13 +2705,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3065,13 +2720,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3080,64 +2735,64 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="D5" s="7">
-        <v>25574</v>
+        <v>133707</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H5" s="7">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="I5" s="7">
-        <v>22527</v>
+        <v>148076</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>54</v>
+        <v>382</v>
       </c>
       <c r="N5" s="7">
-        <v>48101</v>
+        <v>281783</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,54 +2801,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>25574</v>
+        <v>133707</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="I6" s="7">
-        <v>22527</v>
+        <v>148076</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>382</v>
       </c>
       <c r="N6" s="7">
-        <v>48101</v>
+        <v>281783</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3205,13 +2860,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3220,13 +2875,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3235,64 +2890,64 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="D8" s="7">
-        <v>122502</v>
+        <v>207247</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
-        <v>163</v>
+        <v>332</v>
       </c>
       <c r="I8" s="7">
-        <v>111180</v>
+        <v>224359</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M8" s="7">
-        <v>328</v>
+        <v>666</v>
       </c>
       <c r="N8" s="7">
-        <v>233682</v>
+        <v>431606</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3301,49 +2956,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="D9" s="7">
-        <v>122502</v>
+        <v>207247</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>163</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>111180</v>
+        <v>224359</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>328</v>
+        <v>666</v>
       </c>
       <c r="N9" s="7">
-        <v>233682</v>
+        <v>431606</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3360,13 +3015,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3375,13 +3030,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3390,64 +3045,64 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="D11" s="7">
-        <v>224359</v>
+        <v>155997</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="I11" s="7">
-        <v>207247</v>
+        <v>166673</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
-        <v>666</v>
+        <v>507</v>
       </c>
       <c r="N11" s="7">
-        <v>431606</v>
+        <v>322670</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,49 +3111,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="D12" s="7">
-        <v>224359</v>
+        <v>155997</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="I12" s="7">
-        <v>207247</v>
+        <v>166673</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>666</v>
+        <v>507</v>
       </c>
       <c r="N12" s="7">
-        <v>431606</v>
+        <v>322670</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3515,13 +3170,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3530,13 +3185,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3545,64 +3200,64 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="D14" s="7">
-        <v>166673</v>
+        <v>207420</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H14" s="7">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="I14" s="7">
-        <v>155997</v>
+        <v>205736</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M14" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N14" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3611,54 +3266,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="D15" s="7">
-        <v>166673</v>
+        <v>207420</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="I15" s="7">
-        <v>155997</v>
+        <v>205736</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N15" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3670,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3685,13 +3340,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3700,64 +3355,64 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>290</v>
+        <v>1061</v>
       </c>
       <c r="D17" s="7">
-        <v>205736</v>
+        <v>704371</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H17" s="7">
-        <v>281</v>
+        <v>1065</v>
       </c>
       <c r="I17" s="7">
-        <v>207420</v>
+        <v>744844</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M17" s="7">
-        <v>571</v>
+        <v>2126</v>
       </c>
       <c r="N17" s="7">
-        <v>413156</v>
+        <v>1449215</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,217 +3421,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>290</v>
+        <v>1061</v>
       </c>
       <c r="D18" s="7">
-        <v>205736</v>
+        <v>704371</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>281</v>
+        <v>1065</v>
       </c>
       <c r="I18" s="7">
-        <v>207420</v>
+        <v>744844</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>571</v>
+        <v>2126</v>
       </c>
       <c r="N18" s="7">
-        <v>413156</v>
+        <v>1449215</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D20" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I20" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D21" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I21" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>68</v>
+      <c r="A19" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
